--- a/tabs/Table - % Most people can be trusted, CNT+Wave.xlsx
+++ b/tabs/Table - % Most people can be trusted, CNT+Wave.xlsx
@@ -388,12 +388,6 @@
     <t>1981-1984</t>
   </si>
   <si>
-    <t>1989-1993</t>
-  </si>
-  <si>
-    <t>1994-1998</t>
-  </si>
-  <si>
     <t>1999-2004</t>
   </si>
   <si>
@@ -419,6 +413,12 @@
   </si>
   <si>
     <t>Source: World Survey Values.</t>
+  </si>
+  <si>
+    <t>1995-1998</t>
+  </si>
+  <si>
+    <t>1990-1994</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -565,6 +565,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,8 +582,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,85 +910,85 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -995,16 +996,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1">
         <v>999</v>
@@ -1019,22 +1020,22 @@
         <v>24.4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -1042,22 +1043,22 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1">
         <v>1282</v>
@@ -1066,10 +1067,10 @@
         <v>11.2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M6" s="1">
         <v>1200</v>
@@ -1078,10 +1079,10 @@
         <v>17.899999999999999</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1089,28 +1090,28 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="1">
         <v>1003</v>
@@ -1119,10 +1120,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O7" s="1">
         <v>1004</v>
@@ -1132,7 +1133,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1">
@@ -1183,16 +1184,16 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1">
         <v>2000</v>
@@ -1201,16 +1202,16 @@
         <v>24.7</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M9" s="1">
         <v>1100</v>
@@ -1219,10 +1220,10 @@
         <v>11</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -1236,10 +1237,10 @@
         <v>47.8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1">
         <v>2048</v>
@@ -1248,10 +1249,10 @@
         <v>39.9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1">
         <v>1421</v>
@@ -1277,16 +1278,16 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1">
         <v>2002</v>
@@ -1295,16 +1296,16 @@
         <v>20.5</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M11" s="1">
         <v>1002</v>
@@ -1313,10 +1314,10 @@
         <v>15.3</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -1324,16 +1325,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1">
         <v>1525</v>
@@ -1348,16 +1349,16 @@
         <v>23.5</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O12" s="1">
         <v>1200</v>
@@ -1371,10 +1372,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1">
         <v>1015</v>
@@ -1389,16 +1390,16 @@
         <v>24.1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M13" s="1">
         <v>1535</v>
@@ -1407,10 +1408,10 @@
         <v>35.200000000000003</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -1418,40 +1419,40 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O14" s="1">
         <v>2067</v>
@@ -1465,16 +1466,16 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1">
         <v>1200</v>
@@ -1489,33 +1490,33 @@
         <v>15.8</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="1">
         <v>1782</v>
@@ -1530,10 +1531,10 @@
         <v>2.8</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K16" s="1">
         <v>1500</v>
@@ -1559,16 +1560,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G17" s="1">
         <v>1072</v>
@@ -1577,10 +1578,10 @@
         <v>28.6</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K17" s="1">
         <v>1001</v>
@@ -1589,16 +1590,16 @@
         <v>22.2</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1606,28 +1607,28 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K18" s="1">
         <v>1534</v>
@@ -1636,16 +1637,16 @@
         <v>14.7</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -1665,10 +1666,10 @@
         <v>52.4</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I19" s="1">
         <v>1931</v>
@@ -1683,27 +1684,27 @@
         <v>42.8</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1">
         <v>1500</v>
@@ -1743,14 +1744,14 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" s="1">
         <v>1000</v>
@@ -1790,20 +1791,20 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1">
         <v>6025</v>
@@ -1812,10 +1813,10 @@
         <v>10.8</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K22" s="1">
         <v>3025</v>
@@ -1841,16 +1842,16 @@
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1">
         <v>1196</v>
@@ -1859,28 +1860,28 @@
         <v>25.1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1888,28 +1889,28 @@
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K24" s="1">
         <v>1050</v>
@@ -1935,10 +1936,10 @@
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1">
         <v>924</v>
@@ -1953,28 +1954,28 @@
         <v>28.5</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -1982,16 +1983,16 @@
         <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1">
         <v>417</v>
@@ -2000,28 +2001,28 @@
         <v>26.4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -2029,34 +2030,34 @@
         <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M27" s="1">
         <v>1202</v>
@@ -2076,22 +2077,22 @@
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I28" s="1">
         <v>3000</v>
@@ -2123,16 +2124,16 @@
         <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1">
         <v>1254</v>
@@ -2141,28 +2142,28 @@
         <v>14.6</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -2170,16 +2171,16 @@
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G30" s="1">
         <v>1021</v>
@@ -2188,16 +2189,16 @@
         <v>21.5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M30" s="1">
         <v>1533</v>
@@ -2206,10 +2207,10 @@
         <v>40.1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -2217,28 +2218,28 @@
         <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K31" s="1">
         <v>1500</v>
@@ -2247,10 +2248,10 @@
         <v>24.4</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O31" s="1">
         <v>1230</v>
@@ -2270,10 +2271,10 @@
         <v>57.2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G32" s="1">
         <v>987</v>
@@ -2282,10 +2283,10 @@
         <v>48.8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K32" s="1">
         <v>1014</v>
@@ -2294,16 +2295,16 @@
         <v>58.9</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2311,28 +2312,28 @@
         <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K33" s="1">
         <v>1001</v>
@@ -2341,16 +2342,16 @@
         <v>18.8</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2358,16 +2359,16 @@
         <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G34" s="1">
         <v>2008</v>
@@ -2376,10 +2377,10 @@
         <v>18.7</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K34" s="1">
         <v>1500</v>
@@ -2394,10 +2395,10 @@
         <v>8.9</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2405,16 +2406,16 @@
         <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G35" s="1">
         <v>2026</v>
@@ -2423,10 +2424,10 @@
         <v>33.299999999999997</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K35" s="1">
         <v>2064</v>
@@ -2452,28 +2453,28 @@
         <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K36" s="1">
         <v>1534</v>
@@ -2488,10 +2489,10 @@
         <v>5</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2499,40 +2500,40 @@
         <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O37" s="1">
         <v>1200</v>
@@ -2546,28 +2547,28 @@
         <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K38" s="1">
         <v>1000</v>
@@ -2576,10 +2577,10 @@
         <v>15</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O38" s="1">
         <v>1203</v>
@@ -2593,34 +2594,34 @@
         <v>49</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M39" s="1">
         <v>1996</v>
@@ -2629,10 +2630,10 @@
         <v>21.7</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2640,28 +2641,28 @@
         <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K40" s="1">
         <v>1252</v>
@@ -2693,10 +2694,10 @@
         <v>33.1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G41" s="1">
         <v>650</v>
@@ -2705,10 +2706,10 @@
         <v>22.7</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K41" s="1">
         <v>1007</v>
@@ -2717,16 +2718,16 @@
         <v>29.2</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -2734,10 +2735,10 @@
         <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E42" s="1">
         <v>2500</v>
@@ -2770,10 +2771,10 @@
         <v>17.600000000000001</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -2781,22 +2782,22 @@
         <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I43" s="1">
         <v>1000</v>
@@ -2811,10 +2812,10 @@
         <v>42.5</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="1">
         <v>3200</v>
@@ -2828,22 +2829,22 @@
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I44" s="1">
         <v>2532</v>
@@ -2858,10 +2859,10 @@
         <v>10.6</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="1">
         <v>1499</v>
@@ -2875,22 +2876,22 @@
         <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I45" s="1">
         <v>2325</v>
@@ -2922,22 +2923,22 @@
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I46" s="1">
         <v>1199</v>
@@ -2946,22 +2947,22 @@
         <v>23.5</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -2969,28 +2970,28 @@
         <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K47" s="1">
         <v>1012</v>
@@ -2999,16 +3000,16 @@
         <v>29.2</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -3063,22 +3064,22 @@
         <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I49" s="1">
         <v>1223</v>
@@ -3110,34 +3111,34 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M50" s="1">
         <v>1500</v>
@@ -3157,34 +3158,34 @@
         <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M51" s="1">
         <v>1303</v>
@@ -3193,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -3204,22 +3205,22 @@
         <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I52" s="1">
         <v>1043</v>
@@ -3228,10 +3229,10 @@
         <v>16.7</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M52" s="1">
         <v>1500</v>
@@ -3251,16 +3252,16 @@
         <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G53" s="1">
         <v>1200</v>
@@ -3269,28 +3270,28 @@
         <v>24.7</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -3298,34 +3299,34 @@
         <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M54" s="1">
         <v>1200</v>
@@ -3345,34 +3346,34 @@
         <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M55" s="1">
         <v>2131</v>
@@ -3381,10 +3382,10 @@
         <v>10.6</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
@@ -3392,16 +3393,16 @@
         <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G56" s="1">
         <v>1009</v>
@@ -3410,28 +3411,28 @@
         <v>21.9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
@@ -3439,40 +3440,40 @@
         <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O57" s="1">
         <v>1023</v>
@@ -3486,28 +3487,28 @@
         <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K58" s="1">
         <v>1201</v>
@@ -3533,28 +3534,28 @@
         <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K59" s="1">
         <v>1534</v>
@@ -3563,20 +3564,20 @@
         <v>17.5</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="1">
@@ -3627,16 +3628,16 @@
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G61" s="1">
         <v>984</v>
@@ -3657,16 +3658,16 @@
         <v>17.899999999999999</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
@@ -3674,16 +3675,16 @@
         <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G62" s="1">
         <v>240</v>
@@ -3698,22 +3699,22 @@
         <v>33.700000000000003</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
@@ -3721,22 +3722,22 @@
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I63" s="1">
         <v>1251</v>
@@ -3757,10 +3758,10 @@
         <v>12.5</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
@@ -3768,40 +3769,40 @@
         <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O64" s="1">
         <v>1200</v>
@@ -3815,28 +3816,28 @@
         <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K65" s="1">
         <v>1050</v>
@@ -3851,10 +3852,10 @@
         <v>67.400000000000006</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -3862,16 +3863,16 @@
         <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" s="1">
         <v>1201</v>
@@ -3880,10 +3881,10 @@
         <v>49.1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K66" s="1">
         <v>954</v>
@@ -3909,40 +3910,40 @@
         <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O67" s="1">
         <v>1200</v>
@@ -3956,10 +3957,10 @@
         <v>78</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E68" s="1">
         <v>1001</v>
@@ -3980,10 +3981,10 @@
         <v>25.6</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M68" s="1">
         <v>1759</v>
@@ -4003,16 +4004,16 @@
         <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" s="1">
         <v>995</v>
@@ -4027,22 +4028,22 @@
         <v>13.5</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -4050,16 +4051,16 @@
         <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G70" s="1">
         <v>1127</v>
@@ -4068,10 +4069,10 @@
         <v>65.3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K70" s="1">
         <v>1025</v>
@@ -4080,16 +4081,16 @@
         <v>74.2</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -4097,16 +4098,16 @@
         <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G71" s="1">
         <v>733</v>
@@ -4127,10 +4128,10 @@
         <v>23.1</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O71" s="1">
         <v>1995</v>
@@ -4144,34 +4145,34 @@
         <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M72" s="1">
         <v>1000</v>
@@ -4180,10 +4181,10 @@
         <v>17.7</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -4191,16 +4192,16 @@
         <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G73" s="1">
         <v>1211</v>
@@ -4238,16 +4239,16 @@
         <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G74" s="1">
         <v>1200</v>
@@ -4262,10 +4263,10 @@
         <v>8.4</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M74" s="1">
         <v>1200</v>
@@ -4285,10 +4286,10 @@
         <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E75" s="1">
         <v>938</v>
@@ -4303,10 +4304,10 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K75" s="1">
         <v>1000</v>
@@ -4321,10 +4322,10 @@
         <v>22.7</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -4332,40 +4333,40 @@
         <v>86</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O76" s="1">
         <v>1215</v>
@@ -4379,16 +4380,16 @@
         <v>87</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G77" s="1">
         <v>1164</v>
@@ -4403,16 +4404,16 @@
         <v>22.6</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O77" s="1">
         <v>1127</v>
@@ -4426,34 +4427,34 @@
         <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M78" s="1">
         <v>1060</v>
@@ -4462,10 +4463,10 @@
         <v>21.4</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -4473,16 +4474,16 @@
         <v>89</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G79" s="1">
         <v>1239</v>
@@ -4491,10 +4492,10 @@
         <v>18.7</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K79" s="1">
         <v>1776</v>
@@ -4520,10 +4521,10 @@
         <v>90</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E80" s="1">
         <v>1961</v>
@@ -4538,10 +4539,10 @@
         <v>23.9</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K80" s="1">
         <v>2033</v>
@@ -4567,28 +4568,28 @@
         <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K81" s="1">
         <v>1507</v>
@@ -4603,10 +4604,10 @@
         <v>16.600000000000001</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -4614,22 +4615,22 @@
         <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I82" s="1">
         <v>1502</v>
@@ -4638,22 +4639,22 @@
         <v>53</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -4661,16 +4662,16 @@
         <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G83" s="1">
         <v>1280</v>
@@ -4691,10 +4692,10 @@
         <v>15.3</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O83" s="1">
         <v>1046</v>
@@ -4708,22 +4709,22 @@
         <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I84" s="1">
         <v>1512</v>
@@ -4732,10 +4733,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M84" s="1">
         <v>1972</v>
@@ -4744,10 +4745,10 @@
         <v>37.4</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -4755,10 +4756,10 @@
         <v>95</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E85" s="1">
         <v>466</v>
@@ -4773,28 +4774,28 @@
         <v>27</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -4802,16 +4803,16 @@
         <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G86" s="1">
         <v>1007</v>
@@ -4820,10 +4821,10 @@
         <v>15.5</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K86" s="1">
         <v>1037</v>
@@ -4838,10 +4839,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -4876,7 +4877,7 @@
         <v>2988</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M87" s="1">
         <v>3531</v>
@@ -4885,10 +4886,10 @@
         <v>23.4</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -4943,10 +4944,10 @@
         <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E89" s="1">
         <v>1510</v>
@@ -4979,10 +4980,10 @@
         <v>19.600000000000001</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
@@ -4996,10 +4997,10 @@
         <v>57.1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G90" s="1">
         <v>1009</v>
@@ -5025,11 +5026,11 @@
       <c r="N90" s="1">
         <v>61.8</v>
       </c>
-      <c r="O90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>130</v>
+      <c r="O90" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P90" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -5037,10 +5038,10 @@
         <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E91" s="1">
         <v>1400</v>
@@ -5055,10 +5056,10 @@
         <v>41</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K91" s="1">
         <v>1241</v>
@@ -5067,16 +5068,16 @@
         <v>53.9</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
@@ -5084,16 +5085,16 @@
         <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G92" s="1">
         <v>780</v>
@@ -5102,10 +5103,10 @@
         <v>38.200000000000003</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K92" s="1">
         <v>1227</v>
@@ -5131,40 +5132,40 @@
         <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O93" s="1">
         <v>1200</v>
@@ -5178,22 +5179,22 @@
         <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I94" s="1">
         <v>1171</v>
@@ -5202,22 +5203,22 @@
         <v>8.1</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
@@ -5225,28 +5226,28 @@
         <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K95" s="1">
         <v>1534</v>
@@ -5272,28 +5273,28 @@
         <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K96" s="1">
         <v>1002</v>
@@ -5308,10 +5309,10 @@
         <v>3.2</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -5319,34 +5320,34 @@
         <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M97" s="1">
         <v>1205</v>
@@ -5366,10 +5367,10 @@
         <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E98" s="1">
         <v>1030</v>
@@ -5413,22 +5414,22 @@
         <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I99" s="1">
         <v>1002</v>
@@ -5437,22 +5438,22 @@
         <v>7.6</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -5460,40 +5461,40 @@
         <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O100" s="1">
         <v>6600</v>
@@ -5507,16 +5508,16 @@
         <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G101" s="1">
         <v>1093</v>
@@ -5525,10 +5526,10 @@
         <v>31</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K101" s="1">
         <v>1041</v>
@@ -5537,16 +5538,16 @@
         <v>30.5</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -5601,16 +5602,16 @@
         <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G103" s="1">
         <v>1000</v>
@@ -5619,10 +5620,10 @@
         <v>22.1</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K103" s="1">
         <v>1000</v>
@@ -5637,10 +5638,10 @@
         <v>15.2</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -5648,34 +5649,34 @@
         <v>114</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M104" s="1">
         <v>1500</v>
@@ -5684,10 +5685,10 @@
         <v>14.1</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -5695,16 +5696,16 @@
         <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G105" s="1">
         <v>1200</v>
@@ -5719,22 +5720,22 @@
         <v>15.9</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -5742,22 +5743,22 @@
         <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I106" s="1">
         <v>1000</v>
@@ -5772,10 +5773,10 @@
         <v>52.1</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O106" s="1">
         <v>1200</v>
@@ -5789,34 +5790,34 @@
         <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M107" s="1">
         <v>1000</v>
@@ -5825,10 +5826,10 @@
         <v>40.4</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -5836,28 +5837,28 @@
         <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K108" s="1">
         <v>1500</v>
@@ -5866,16 +5867,16 @@
         <v>11.5</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -5883,22 +5884,22 @@
         <v>119</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I109" s="3">
         <v>1002</v>
@@ -5907,10 +5908,10 @@
         <v>11.9</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M109" s="3">
         <v>1500</v>
@@ -5927,7 +5928,7 @@
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
